--- a/data/trans_orig/P16B18-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16B18-Clase-trans_orig.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de anticonceptivos recetados en 2007 (tasa de respuesta: 100,0%)</t>
+          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2007 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1296,7 +1296,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de anticonceptivos recetados en 2012 (tasa de respuesta: 97,24%)</t>
+          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2012 (tasa de respuesta: 97,24%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2021,7 +2021,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de anticonceptivos recetados en 2016 (tasa de respuesta: 98,68%)</t>
+          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2016 (tasa de respuesta: 98,68%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16B18-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16B18-Clase-trans_orig.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2007 (tasa de respuesta: 100,0%)</t>
+          <t>Mujeres menores de 55 años con anticonceptivos recetados en 2007 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1296,7 +1296,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2012 (tasa de respuesta: 97,24%)</t>
+          <t>Mujeres menores de 55 años con anticonceptivos recetados en 2012 (tasa de respuesta: 97,24%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2021,7 +2021,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2016 (tasa de respuesta: 98,68%)</t>
+          <t>Mujeres menores de 55 años con anticonceptivos recetados en 2016 (tasa de respuesta: 98,68%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16B18-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16B18-Clase-trans_orig.xlsx
@@ -623,19 +623,19 @@
         <v>31393</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26403</v>
+        <v>26298</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34395</v>
+        <v>34374</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8871555952048906</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7461442112725557</v>
+        <v>0.7431866652415898</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9720013166407813</v>
+        <v>0.9713895175800088</v>
       </c>
     </row>
     <row r="5">
@@ -652,19 +652,19 @@
         <v>3993</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>991</v>
+        <v>1012</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8983</v>
+        <v>9088</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1128444047951094</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02799868335921872</v>
+        <v>0.02861048241999123</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2538557887274443</v>
+        <v>0.2568133347584103</v>
       </c>
     </row>
     <row r="6">
@@ -714,19 +714,19 @@
         <v>40864</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36597</v>
+        <v>35620</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>43020</v>
+        <v>43009</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.928265665415863</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8313296457204277</v>
+        <v>0.809143755743754</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9772477019220808</v>
+        <v>0.9769908398672693</v>
       </c>
     </row>
     <row r="8">
@@ -743,19 +743,19 @@
         <v>3158</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1002</v>
+        <v>1013</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7425</v>
+        <v>8402</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07173433458413705</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0227522980779193</v>
+        <v>0.02300916013273075</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1686703542795723</v>
+        <v>0.190856244256246</v>
       </c>
     </row>
     <row r="9">
@@ -805,7 +805,7 @@
         <v>7715</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3913</v>
+        <v>4722</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>9633</v>
@@ -814,7 +814,7 @@
         <v>0.800905717996642</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.406189771966029</v>
+        <v>0.4901500479072159</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5720</v>
+        <v>4911</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1990942820033579</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5938102280339714</v>
+        <v>0.5098499520927841</v>
       </c>
     </row>
     <row r="12">
@@ -896,7 +896,7 @@
         <v>50348</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>46092</v>
+        <v>45337</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>52348</v>
@@ -905,7 +905,7 @@
         <v>0.9617871150562981</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8804900459410397</v>
+        <v>0.8660772851081363</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>1</v>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6256</v>
+        <v>7011</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03821288494370193</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.11950995405896</v>
+        <v>0.1339227148918637</v>
       </c>
     </row>
     <row r="15">
@@ -987,19 +987,19 @@
         <v>30738</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>25851</v>
+        <v>25917</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32894</v>
+        <v>33324</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9083680780964636</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7639425112218572</v>
+        <v>0.7658947038394538</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9720828760990385</v>
+        <v>0.9847908316323044</v>
       </c>
     </row>
     <row r="17">
@@ -1016,19 +1016,19 @@
         <v>3101</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>945</v>
+        <v>515</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7988</v>
+        <v>7922</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09163192190353636</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02791712390096133</v>
+        <v>0.01520916836769815</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2360574887781423</v>
+        <v>0.234105296160546</v>
       </c>
     </row>
     <row r="18">
@@ -1078,19 +1078,19 @@
         <v>32056</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>27200</v>
+        <v>27384</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>34943</v>
+        <v>34978</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.891719207813199</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7566617762454335</v>
+        <v>0.7617614887177685</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9720566953115723</v>
+        <v>0.9730113278108288</v>
       </c>
     </row>
     <row r="20">
@@ -1107,19 +1107,19 @@
         <v>3892</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1005</v>
+        <v>970</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8748</v>
+        <v>8564</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.108280792186801</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02794330468842762</v>
+        <v>0.02698867218917123</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2433382237545663</v>
+        <v>0.2382385112822318</v>
       </c>
     </row>
     <row r="21">
@@ -1169,19 +1169,19 @@
         <v>193115</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>184085</v>
+        <v>183932</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>200163</v>
+        <v>200013</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9144670599223602</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8717059762207751</v>
+        <v>0.870982431895225</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9478385631103613</v>
+        <v>0.9471301261646864</v>
       </c>
     </row>
     <row r="23">
@@ -1198,19 +1198,19 @@
         <v>18063</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>11015</v>
+        <v>11165</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>27093</v>
+        <v>27246</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08553294007763979</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05216143688963878</v>
+        <v>0.0528698738353136</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1282940237792254</v>
+        <v>0.129017568104775</v>
       </c>
     </row>
     <row r="24">
@@ -1380,7 +1380,7 @@
         <v>31293</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25754</v>
+        <v>25677</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>32262</v>
@@ -1389,7 +1389,7 @@
         <v>0.9699719369340486</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7982839059316879</v>
+        <v>0.7958927964267531</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6508</v>
+        <v>6585</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03002806306595136</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2017160940683183</v>
+        <v>0.2041072035732465</v>
       </c>
     </row>
     <row r="6">
@@ -1546,7 +1546,7 @@
         <v>12898</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9606</v>
+        <v>9169</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>13797</v>
@@ -1555,7 +1555,7 @@
         <v>0.9348292761408671</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6962367872897132</v>
+        <v>0.6645882436282708</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4191</v>
+        <v>4628</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06517072385913289</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3037632127102854</v>
+        <v>0.3354117563717286</v>
       </c>
     </row>
     <row r="12">
@@ -1637,7 +1637,7 @@
         <v>63936</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>60483</v>
+        <v>58756</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>65000</v>
@@ -1646,7 +1646,7 @@
         <v>0.9836249171418617</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9305071518309576</v>
+        <v>0.9039316146092204</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>1</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4517</v>
+        <v>6244</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01637508285813831</v>
@@ -1678,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06949284816904051</v>
+        <v>0.0960683853907789</v>
       </c>
     </row>
     <row r="15">
@@ -1803,7 +1803,7 @@
         <v>51763</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>48667</v>
+        <v>47134</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>52755</v>
@@ -1812,7 +1812,7 @@
         <v>0.9811958689309925</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9225134843258219</v>
+        <v>0.8934425542110821</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4088</v>
+        <v>5621</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0188041310690075</v>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07748651567417805</v>
+        <v>0.1065574457889169</v>
       </c>
     </row>
     <row r="21">
@@ -1894,19 +1894,19 @@
         <v>221064</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>215076</v>
+        <v>214989</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>223966</v>
+        <v>223999</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9825576696208269</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9559464742668228</v>
+        <v>0.9555584397089931</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9954583435415187</v>
+        <v>0.9956036477112806</v>
       </c>
     </row>
     <row r="23">
@@ -1923,19 +1923,19 @@
         <v>3924</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1022</v>
+        <v>989</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9912</v>
+        <v>9999</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01744233037917304</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.004541656458481174</v>
+        <v>0.004396352288719373</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04405352573317721</v>
+        <v>0.04444156029100683</v>
       </c>
     </row>
     <row r="24">
@@ -2105,7 +2105,7 @@
         <v>15290</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10570</v>
+        <v>11563</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>17218</v>
@@ -2114,7 +2114,7 @@
         <v>0.8880184583390435</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6138829218267378</v>
+        <v>0.6715672168808599</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6648</v>
+        <v>5655</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1119815416609565</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3861170781732639</v>
+        <v>0.3284327831191405</v>
       </c>
     </row>
     <row r="6">
@@ -2196,7 +2196,7 @@
         <v>26699</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23216</v>
+        <v>23547</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>27680</v>
@@ -2205,7 +2205,7 @@
         <v>0.9645579541017713</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8387221640431385</v>
+        <v>0.850682528292563</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4464</v>
+        <v>4133</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03544204589822877</v>
@@ -2237,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1612778359568604</v>
+        <v>0.1493174717074369</v>
       </c>
     </row>
     <row r="9">
@@ -2362,7 +2362,7 @@
         <v>39243</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>34988</v>
+        <v>34945</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>40953</v>
@@ -2371,10 +2371,10 @@
         <v>0.9396007321542124</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8377127514748784</v>
+        <v>0.836687827946224</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9805462161489404</v>
+        <v>0.9805297342215105</v>
       </c>
     </row>
     <row r="14">
@@ -2394,16 +2394,16 @@
         <v>813</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6778</v>
+        <v>6821</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06039926784578763</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0194537838510595</v>
+        <v>0.01947026577848954</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1622872485251209</v>
+        <v>0.1633121720537761</v>
       </c>
     </row>
     <row r="15">
@@ -2453,7 +2453,7 @@
         <v>23675</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20099</v>
+        <v>19863</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>24597</v>
@@ -2462,7 +2462,7 @@
         <v>0.9625041436334568</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8171172713105217</v>
+        <v>0.8075398071801033</v>
       </c>
       <c r="I16" s="6" t="n">
         <v>1</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4498</v>
+        <v>4734</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03749585636654322</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1828827286894779</v>
+        <v>0.1924601928198968</v>
       </c>
     </row>
     <row r="18">
@@ -2619,19 +2619,19 @@
         <v>138280</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>131783</v>
+        <v>132209</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>141838</v>
+        <v>141956</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9560685280827131</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9111509054630463</v>
+        <v>0.9140933501604847</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9806669821383917</v>
+        <v>0.9814854205440432</v>
       </c>
     </row>
     <row r="23">
@@ -2648,19 +2648,19 @@
         <v>6354</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2796</v>
+        <v>2678</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>12851</v>
+        <v>12425</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04393147191728683</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01933301786160833</v>
+        <v>0.01851457945595684</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.08884909453695355</v>
+        <v>0.08590664983951531</v>
       </c>
     </row>
     <row r="24">
